--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_136.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_136.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:00:35.440000', '0:00:37.740000'), ('0:00:14.080000', '0:00:18.400000'), ('0:00:23.980000', '0:00:27.340000'), ('0:00:39.900000', '0:00:41.520000'), ('0:00:09.720000', '0:00:13')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:36.740000', '0:00:42.320000'), ('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000'), ('0:00:35.140000', '0:00:39.900000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:47.760000', '0:00:59.620000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.300000', '0:00:03.640000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>jaah_63</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07943349753694581</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['Db', 'C', 'Bb:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(79.04, 91.18)]</t>
+          <t>[['Ab', 'G', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(205.86, 217.18)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:17.210000', '0:00:19.800000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:49.604000', '0:01:54.149000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2598235765838011</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E', 'A']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(63.524557, 74.101247)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.076, 51.38)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:02:00.500000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:12.420000', '0:02:42.760000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05330188679245283</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
+          <t>[['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.717755, 26.14043), (6.357029, 23.632675)]</t>
+          <t>[['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(57.758, 64.527), (5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:04:10.300000', '0:04:12.760000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:28.190000', '0:00:36.120000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.64, 78.16)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(47.8, 98.98)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(56.44, 65.46), (61.68, 67.26), (74.9, 86.12), (6.38, 12.5)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.84, 26.98), (66.04, 68.54), (68.04, 74.94), (68.54, 79.0)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1310924369747899</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G', 'G'], ['G', 'C', 'G/3'], ['G/3', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E/5', 'E/#4', 'E/4'], ['E', 'A', 'E'], ['E', 'E', 'A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.366439, 5.255782), (22.020589, 24.598004), (5.894331, 9.748843)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.440395, 4.837819), (25.015959, 36.625937), (22.125076, 33.711833)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0832708177044261</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D', 'A:7']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/A', 'A:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(67.256523, 73.909041)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(52.06, 56.34)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_8</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0480802252901985</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5230769230769231</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.42, 20.84)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(49.55, 54.02)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.66, 7.98)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09981684981684981</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F', 'Bb:7', 'F']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.639897, 22.338129)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.27, 15.54)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2240853658536585</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.939, 3.682)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1211328976034858</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(22.77, 31.75)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.8, 40.02)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_189</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_10</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2053571428571428</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G/3', 'A:min', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.683741, 29.902063)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.763, 46.278)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
